--- a/fhir/IG/ValueSet-mmdx-vs-stagetype.xlsx
+++ b/fhir/IG/ValueSet-mmdx-vs-stagetype.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T13:45:48+03:00</t>
+    <t>2022-02-21T10:46:18+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
